--- a/4、管理文档/验收文档/项目启动基线/1、ZKR-人工智能编辑部系统-JH-项目总体计划-v1.0.xlsx
+++ b/4、管理文档/验收文档/项目启动基线/1、ZKR-人工智能编辑部系统-JH-项目总体计划-v1.0.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\工作目录\央视网\4、管理文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\工作目录\央视网\4、管理文档\验收文档\项目启动基线\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFEB948-80C0-4E74-974C-BFFE0DA3F2E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0C9A3F-4936-4569-A00E-41EC64F6CCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{CAE780A6-FF2E-4726-82D4-5EE45D019E79}"/>
+    <workbookView xWindow="4200" yWindow="4200" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{CAE780A6-FF2E-4726-82D4-5EE45D019E79}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="文档信息" sheetId="2" r:id="rId1"/>
+    <sheet name="项目总体计划" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="123">
   <si>
     <t>任务名称</t>
   </si>
@@ -325,6 +326,81 @@
   </si>
   <si>
     <t xml:space="preserve">   编写开发标准要求</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目编号</t>
+  </si>
+  <si>
+    <t>文档编号</t>
+  </si>
+  <si>
+    <t>版本号</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>作者</t>
+  </si>
+  <si>
+    <t>受控状态</t>
+  </si>
+  <si>
+    <t>审核一</t>
+  </si>
+  <si>
+    <t>审核二</t>
+  </si>
+  <si>
+    <t>V1.0</t>
+  </si>
+  <si>
+    <t>项目经理</t>
+  </si>
+  <si>
+    <t>受控</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>修改后版本号</t>
+  </si>
+  <si>
+    <t>修改日期</t>
+  </si>
+  <si>
+    <t>修改人</t>
+  </si>
+  <si>
+    <t>修改原因</t>
+  </si>
+  <si>
+    <t>修改内容</t>
+  </si>
+  <si>
+    <t>文档名：项目总体计划</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工智能编辑部项目</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>GB-MTRH-RGZN-2020-010</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>中科软科技股份有限公司</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>王梓</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>童琛炳</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -332,7 +408,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+  </numFmts>
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,8 +466,68 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -407,8 +546,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -431,13 +582,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -461,6 +673,69 @@
     </xf>
     <xf numFmtId="31" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -775,6 +1050,242 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D286B78-4116-4083-9741-14D243FD2D1F}">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="21">
+      <c r="A1" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="9"/>
+      <c r="I1" s="25"/>
+    </row>
+    <row r="2" spans="1:9" ht="16.5">
+      <c r="A2" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.5">
+      <c r="A3" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.5">
+      <c r="A4" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:9" ht="16.5">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.5">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.5">
+      <c r="A7" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5">
+      <c r="A8" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="17">
+        <v>44371</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.5">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" spans="1:9" ht="16.5">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+    </row>
+    <row r="13" spans="1:9" ht="15">
+      <c r="A13" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16.5">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+    </row>
+    <row r="15" spans="1:9" ht="16.5">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+    </row>
+    <row r="16" spans="1:9" ht="16.5">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+    </row>
+    <row r="17" spans="1:6" ht="16.5">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+    </row>
+    <row r="18" spans="1:6" ht="16.5">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+    </row>
+    <row r="19" spans="1:6" ht="16.5">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+    </row>
+    <row r="20" spans="1:6" ht="16.5">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A10:F10"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA75FD3-61FF-4A55-AFF4-E79D4369AD3F}">
   <dimension ref="A1:D77"/>
   <sheetViews>
@@ -782,12 +1293,12 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="4" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -801,7 +1312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -815,7 +1326,7 @@
         <v>44370</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -829,7 +1340,7 @@
         <v>44358</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -843,7 +1354,7 @@
         <v>44361</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
@@ -857,7 +1368,7 @@
         <v>44363</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
@@ -871,7 +1382,7 @@
         <v>44368</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -885,7 +1396,7 @@
         <v>44369</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
@@ -899,7 +1410,7 @@
         <v>44370</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -913,7 +1424,7 @@
         <v>44379</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
@@ -927,7 +1438,7 @@
         <v>44372</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
@@ -941,7 +1452,7 @@
         <v>44379</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="6" t="s">
         <v>99</v>
       </c>
@@ -955,7 +1466,7 @@
         <v>44372</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="6" t="s">
         <v>20</v>
       </c>
@@ -969,7 +1480,7 @@
         <v>44379</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
@@ -983,7 +1494,7 @@
         <v>44379</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="28.5">
       <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
@@ -997,7 +1508,7 @@
         <v>44407</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="6" t="s">
         <v>24</v>
       </c>
@@ -1011,7 +1522,7 @@
         <v>44386</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="6" t="s">
         <v>25</v>
       </c>
@@ -1025,7 +1536,7 @@
         <v>44386</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="6" t="s">
         <v>26</v>
       </c>
@@ -1039,7 +1550,7 @@
         <v>44386</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="6" t="s">
         <v>27</v>
       </c>
@@ -1053,7 +1564,7 @@
         <v>44386</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
@@ -1067,7 +1578,7 @@
         <v>44469</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
         <v>30</v>
       </c>
@@ -1081,7 +1592,7 @@
         <v>44393</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="6" t="s">
         <v>71</v>
       </c>
@@ -1095,7 +1606,7 @@
         <v>44390</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="6" t="s">
         <v>72</v>
       </c>
@@ -1109,7 +1620,7 @@
         <v>44392</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" s="6" t="s">
         <v>73</v>
       </c>
@@ -1123,7 +1634,7 @@
         <v>44393</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
         <v>31</v>
       </c>
@@ -1137,7 +1648,7 @@
         <v>44400</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" s="6" t="s">
         <v>74</v>
       </c>
@@ -1151,7 +1662,7 @@
         <v>44400</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
         <v>32</v>
       </c>
@@ -1165,7 +1676,7 @@
         <v>44427</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" s="6" t="s">
         <v>75</v>
       </c>
@@ -1179,7 +1690,7 @@
         <v>44406</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" s="6" t="s">
         <v>77</v>
       </c>
@@ -1193,7 +1704,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" s="6" t="s">
         <v>78</v>
       </c>
@@ -1207,7 +1718,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" s="6" t="s">
         <v>79</v>
       </c>
@@ -1221,7 +1732,7 @@
         <v>44421</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="28.5">
       <c r="A32" s="6" t="s">
         <v>80</v>
       </c>
@@ -1235,7 +1746,7 @@
         <v>44426</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" s="6" t="s">
         <v>81</v>
       </c>
@@ -1249,7 +1760,7 @@
         <v>44427</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
         <v>34</v>
       </c>
@@ -1263,7 +1774,7 @@
         <v>44438</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35" s="6" t="s">
         <v>82</v>
       </c>
@@ -1277,7 +1788,7 @@
         <v>44434</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36" s="6" t="s">
         <v>83</v>
       </c>
@@ -1291,7 +1802,7 @@
         <v>44438</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -1305,7 +1816,7 @@
         <v>44455</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38" s="6" t="s">
         <v>84</v>
       </c>
@@ -1319,7 +1830,7 @@
         <v>44442</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" s="6" t="s">
         <v>85</v>
       </c>
@@ -1333,7 +1844,7 @@
         <v>44448</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40" s="6" t="s">
         <v>86</v>
       </c>
@@ -1347,7 +1858,7 @@
         <v>44455</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
         <v>38</v>
       </c>
@@ -1361,7 +1872,7 @@
         <v>44469</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42" s="6" t="s">
         <v>87</v>
       </c>
@@ -1375,7 +1886,7 @@
         <v>44462</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43" s="6" t="s">
         <v>88</v>
       </c>
@@ -1389,7 +1900,7 @@
         <v>44469</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
         <v>40</v>
       </c>
@@ -1403,7 +1914,7 @@
         <v>44455</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" s="6" t="s">
         <v>89</v>
       </c>
@@ -1417,7 +1928,7 @@
         <v>44391</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" s="6" t="s">
         <v>90</v>
       </c>
@@ -1431,7 +1942,7 @@
         <v>44398</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4">
       <c r="A47" s="6" t="s">
         <v>91</v>
       </c>
@@ -1445,7 +1956,7 @@
         <v>44406</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4">
       <c r="A48" s="6" t="s">
         <v>93</v>
       </c>
@@ -1459,7 +1970,7 @@
         <v>44414</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49" s="6" t="s">
         <v>94</v>
       </c>
@@ -1473,7 +1984,7 @@
         <v>44424</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50" s="6" t="s">
         <v>95</v>
       </c>
@@ -1487,7 +1998,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51" s="6" t="s">
         <v>96</v>
       </c>
@@ -1501,7 +2012,7 @@
         <v>44441</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52" s="6" t="s">
         <v>97</v>
       </c>
@@ -1515,7 +2026,7 @@
         <v>44448</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53" s="6" t="s">
         <v>98</v>
       </c>
@@ -1529,7 +2040,7 @@
         <v>44455</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54" s="3" t="s">
         <v>42</v>
       </c>
@@ -1543,7 +2054,7 @@
         <v>44469</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55" s="6" t="s">
         <v>43</v>
       </c>
@@ -1557,7 +2068,7 @@
         <v>44462</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56" s="5" t="s">
         <v>44</v>
       </c>
@@ -1571,7 +2082,7 @@
         <v>44469</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57" s="3" t="s">
         <v>45</v>
       </c>
@@ -1585,7 +2096,7 @@
         <v>44490</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58" s="6" t="s">
         <v>47</v>
       </c>
@@ -1599,7 +2110,7 @@
         <v>44419</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4">
       <c r="A59" s="6" t="s">
         <v>48</v>
       </c>
@@ -1613,7 +2124,7 @@
         <v>44426</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4">
       <c r="A60" s="6" t="s">
         <v>49</v>
       </c>
@@ -1627,7 +2138,7 @@
         <v>44469</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4">
       <c r="A61" s="6" t="s">
         <v>51</v>
       </c>
@@ -1641,7 +2152,7 @@
         <v>44488</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4">
       <c r="A62" s="6" t="s">
         <v>52</v>
       </c>
@@ -1655,7 +2166,7 @@
         <v>44490</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4">
       <c r="A63" s="3" t="s">
         <v>53</v>
       </c>
@@ -1669,7 +2180,7 @@
         <v>44560</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4">
       <c r="A64" s="6" t="s">
         <v>55</v>
       </c>
@@ -1683,7 +2194,7 @@
         <v>44414</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4">
       <c r="A65" s="6" t="s">
         <v>56</v>
       </c>
@@ -1697,7 +2208,7 @@
         <v>44428</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4">
       <c r="A66" s="6" t="s">
         <v>57</v>
       </c>
@@ -1711,7 +2222,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4">
       <c r="A67" s="6" t="s">
         <v>58</v>
       </c>
@@ -1725,7 +2236,7 @@
         <v>44442</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4">
       <c r="A68" s="6" t="s">
         <v>59</v>
       </c>
@@ -1739,7 +2250,7 @@
         <v>44490</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4">
       <c r="A69" s="6" t="s">
         <v>60</v>
       </c>
@@ -1753,7 +2264,7 @@
         <v>44491</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4">
       <c r="A70" s="6" t="s">
         <v>61</v>
       </c>
@@ -1767,7 +2278,7 @@
         <v>44497</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4">
       <c r="A71" s="6" t="s">
         <v>62</v>
       </c>
@@ -1781,7 +2292,7 @@
         <v>44504</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4">
       <c r="A72" s="6" t="s">
         <v>63</v>
       </c>
@@ -1795,7 +2306,7 @@
         <v>44560</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4">
       <c r="A73" s="3" t="s">
         <v>65</v>
       </c>
@@ -1809,7 +2320,7 @@
         <v>44449</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4">
       <c r="A74" s="6" t="s">
         <v>67</v>
       </c>
@@ -1823,7 +2334,7 @@
         <v>44421</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4">
       <c r="A75" s="6" t="s">
         <v>68</v>
       </c>
@@ -1837,7 +2348,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4">
       <c r="A76" s="6" t="s">
         <v>69</v>
       </c>
@@ -1851,7 +2362,7 @@
         <v>44442</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4">
       <c r="A77" s="6" t="s">
         <v>70</v>
       </c>
